--- a/data/T29R11_data_final.xlsx
+++ b/data/T29R11_data_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Ecology\Student_folders_&amp;_files\Kara 2020\GLO\Sage_GLO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7844C2-81F2-4189-A04B-64138ED9A5A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A63C886-46D0-48F7-87D4-44859AD11A8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2265" yWindow="1830" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1940Survey" sheetId="1" r:id="rId1"/>
@@ -241,7 +241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5397" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5470" uniqueCount="505">
   <si>
     <t>Survey_type</t>
   </si>
@@ -1756,9 +1756,6 @@
   </si>
   <si>
     <t>HSC</t>
-  </si>
-  <si>
-    <t>Segment_ID</t>
   </si>
 </sst>
 </file>
@@ -26448,599 +26445,819 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D11515-F6A4-4E6D-842A-E1A1858A1158}">
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13" style="35" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="35"/>
+    <col min="1" max="1" width="18.5546875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="13" style="35" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="35" t="s">
-        <v>505</v>
+        <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="35" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="35" t="s">
         <v>472</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="C2" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="35" t="s">
         <v>474</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="C3" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="35" t="s">
         <v>476</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="C4" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="35" t="s">
         <v>478</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="C5" s="35" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="35" t="s">
         <v>480</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="C6" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="35" t="s">
         <v>482</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="C7" s="35" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="35" t="s">
         <v>473</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="C8" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="35" t="s">
         <v>475</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="C9" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="35" t="s">
         <v>477</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="C10" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="35" t="s">
         <v>479</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="C11" s="35" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="A12" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="35" t="s">
         <v>481</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="C12" s="35" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="A13" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="35" t="s">
         <v>483</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="C13" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="35" t="s">
         <v>485</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="C14" s="35" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="A15" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="35" t="s">
         <v>487</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="C15" s="35" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="A16" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="35" t="s">
         <v>489</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="C16" s="35" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3">
       <c r="A17" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="35" t="s">
         <v>435</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="C17" s="35" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3">
       <c r="A18" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="35" t="s">
         <v>438</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="C18" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3">
       <c r="A19" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="35" t="s">
         <v>445</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="C19" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3">
       <c r="A20" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="35" t="s">
         <v>452</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="C20" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3">
       <c r="A21" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="35" t="s">
         <v>456</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="C21" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:3">
       <c r="A22" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="35" t="s">
         <v>460</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="C22" s="35" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:3">
       <c r="A23" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="35" t="s">
         <v>488</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="C23" s="35" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:3">
       <c r="A24" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="35" t="s">
         <v>486</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="C24" s="35" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:3">
       <c r="A25" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="35" t="s">
         <v>484</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="C25" s="35" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:3">
       <c r="A26" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="35" t="s">
         <v>432</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="C26" s="35" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:3">
       <c r="A27" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="35" t="s">
         <v>424</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="C27" s="35" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:3">
       <c r="A28" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="35" t="s">
         <v>428</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="C28" s="35" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:3">
       <c r="A29" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="35" t="s">
         <v>436</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="C29" s="35" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:3">
       <c r="A30" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="35" t="s">
         <v>437</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="C30" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:3">
       <c r="A31" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="35" t="s">
         <v>446</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="C31" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:3">
       <c r="A32" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="35" t="s">
         <v>451</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="C32" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:3">
       <c r="A33" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="35" t="s">
         <v>455</v>
       </c>
-      <c r="B33" s="35" t="s">
+      <c r="C33" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:3">
       <c r="A34" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="35" t="s">
         <v>459</v>
       </c>
-      <c r="B34" s="35" t="s">
+      <c r="C34" s="35" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:3">
       <c r="A35" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="35" t="s">
         <v>463</v>
       </c>
-      <c r="B35" s="35" t="s">
+      <c r="C35" s="35" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:3">
       <c r="A36" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="35" t="s">
         <v>468</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="C36" s="35" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:3">
       <c r="A37" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="35" t="s">
         <v>469</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="C37" s="35" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:3">
       <c r="A38" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="35" t="s">
         <v>430</v>
       </c>
-      <c r="B38" s="35" t="s">
+      <c r="C38" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:3">
       <c r="A39" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="35" t="s">
         <v>425</v>
       </c>
-      <c r="B39" s="35" t="s">
+      <c r="C39" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:3">
       <c r="A40" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="35" t="s">
         <v>431</v>
       </c>
-      <c r="B40" s="35" t="s">
+      <c r="C40" s="35" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:3">
       <c r="A41" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="35" t="s">
         <v>441</v>
       </c>
-      <c r="B41" s="35" t="s">
+      <c r="C41" s="35" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:3">
       <c r="A42" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="35" t="s">
         <v>442</v>
       </c>
-      <c r="B42" s="35" t="s">
+      <c r="C42" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:3">
       <c r="A43" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="35" t="s">
         <v>470</v>
       </c>
-      <c r="B43" s="35" t="s">
+      <c r="C43" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:3">
       <c r="A44" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="35" t="s">
         <v>450</v>
       </c>
-      <c r="B44" s="35" t="s">
+      <c r="C44" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:3">
       <c r="A45" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="35" t="s">
         <v>454</v>
       </c>
-      <c r="B45" s="35" t="s">
+      <c r="C45" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:3">
       <c r="A46" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" s="35" t="s">
         <v>458</v>
       </c>
-      <c r="B46" s="35" t="s">
+      <c r="C46" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:3">
       <c r="A47" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" s="35" t="s">
         <v>462</v>
       </c>
-      <c r="B47" s="35" t="s">
+      <c r="C47" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:3">
       <c r="A48" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" s="35" t="s">
         <v>466</v>
       </c>
-      <c r="B48" s="35" t="s">
+      <c r="C48" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:3">
       <c r="A49" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="35" t="s">
         <v>467</v>
       </c>
-      <c r="B49" s="35" t="s">
+      <c r="C49" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:3">
       <c r="A50" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B50" s="35" t="s">
         <v>429</v>
       </c>
-      <c r="B50" s="35" t="s">
+      <c r="C50" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:3">
       <c r="A51" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" s="35" t="s">
         <v>426</v>
       </c>
-      <c r="B51" s="35" t="s">
+      <c r="C51" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:3">
       <c r="A52" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" s="35" t="s">
         <v>433</v>
       </c>
-      <c r="B52" s="35" t="s">
+      <c r="C52" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:3">
       <c r="A53" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" s="35" t="s">
         <v>440</v>
       </c>
-      <c r="B53" s="35" t="s">
+      <c r="C53" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:3">
       <c r="A54" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B54" s="35" t="s">
         <v>443</v>
       </c>
-      <c r="B54" s="35" t="s">
+      <c r="C54" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:3">
       <c r="A55" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55" s="35" t="s">
         <v>448</v>
       </c>
-      <c r="B55" s="35" t="s">
+      <c r="C55" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:3">
       <c r="A56" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" s="35" t="s">
         <v>449</v>
       </c>
-      <c r="B56" s="35" t="s">
+      <c r="C56" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:3">
       <c r="A57" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" s="35" t="s">
         <v>453</v>
       </c>
-      <c r="B57" s="35" t="s">
+      <c r="C57" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:3">
       <c r="A58" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" s="35" t="s">
         <v>457</v>
       </c>
-      <c r="B58" s="35" t="s">
+      <c r="C58" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:3">
       <c r="A59" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59" s="35" t="s">
         <v>461</v>
       </c>
-      <c r="B59" s="35" t="s">
+      <c r="C59" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:3">
       <c r="A60" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" s="35" t="s">
         <v>464</v>
       </c>
-      <c r="B60" s="35" t="s">
+      <c r="C60" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:3">
       <c r="A61" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61" s="35" t="s">
         <v>465</v>
       </c>
-      <c r="B61" s="35" t="s">
+      <c r="C61" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:3">
       <c r="A62" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="B62" s="35" t="s">
+      <c r="C62" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:3">
       <c r="A63" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B63" s="35" t="s">
         <v>427</v>
       </c>
-      <c r="B63" s="35" t="s">
+      <c r="C63" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:3">
       <c r="A64" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B64" s="35" t="s">
         <v>434</v>
       </c>
-      <c r="B64" s="35" t="s">
+      <c r="C64" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:3">
       <c r="A65" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B65" s="35" t="s">
         <v>439</v>
       </c>
-      <c r="B65" s="35" t="s">
+      <c r="C65" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:3">
       <c r="A66" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B66" s="35" t="s">
         <v>444</v>
       </c>
-      <c r="B66" s="35" t="s">
+      <c r="C66" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:3">
       <c r="A67" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B67" s="35" t="s">
         <v>447</v>
       </c>
-      <c r="B67" s="35" t="s">
+      <c r="C67" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:3">
       <c r="A68" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B68" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="B68" s="35" t="s">
+      <c r="C68" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:3">
       <c r="A69" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B69" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="B69" s="35" t="s">
+      <c r="C69" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:3">
       <c r="A70" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B70" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="35" t="s">
+      <c r="C70" s="35" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:3">
       <c r="A71" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B71" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="B71" s="35" t="s">
+      <c r="C71" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:3">
       <c r="A72" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B72" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="B72" s="35" t="s">
+      <c r="C72" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:3">
       <c r="A73" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B73" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="B73" s="35" t="s">
+      <c r="C73" s="35" t="s">
         <v>31</v>
       </c>
     </row>
